--- a/biology/Médecine/Samuel_O._Freedman/Samuel_O._Freedman.xlsx
+++ b/biology/Médecine/Samuel_O._Freedman/Samuel_O._Freedman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Samuel O. Freedman (8 mai 1928 à Montréal) est un immunologiste, professeur et administrateur québécois[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samuel O. Freedman (8 mai 1928 à Montréal) est un immunologiste, professeur et administrateur québécois.
 Selon l'Ordre du Canada en 1986 : 
-« L'un des chefs de file Canadiens dans le domaine de l'immunologie clinique, il a acquis une réputation internationale à titre de co-découvreur [avec Phil Gold] de l'antigène carcinoembryonnaire, qui a abouti à la mise au point du premier test sérologique pratique pour le dépistage du cancer de l'intestin et qui a eu d'importantes répercussions sur l'étude de l'aspect biologique des tumeurs. Enseignant et administrateur réputé, il est maintenant vice-recteur (affaires universitaires) à l'Université McGill et médecin chef du service d'immunologie clinique et d'allergie à l'Hôpital Général de Montréal[2]. »
+« L'un des chefs de file Canadiens dans le domaine de l'immunologie clinique, il a acquis une réputation internationale à titre de co-découvreur [avec Phil Gold] de l'antigène carcinoembryonnaire, qui a abouti à la mise au point du premier test sérologique pratique pour le dépistage du cancer de l'intestin et qui a eu d'importantes répercussions sur l'étude de l'aspect biologique des tumeurs. Enseignant et administrateur réputé, il est maintenant vice-recteur (affaires universitaires) à l'Université McGill et médecin chef du service d'immunologie clinique et d'allergie à l'Hôpital Général de Montréal. »
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1978 - Prix Gairdner
 1985 - Officier de l'Ordre du Canada
